--- a/Programming Tasks Questions.xlsx
+++ b/Programming Tasks Questions.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="1372">
   <si>
     <t>ID</t>
   </si>
@@ -20824,6 +20824,12 @@
   <si>
     <t>13-02-2023</t>
   </si>
+  <si>
+    <t>15-02-2023</t>
+  </si>
+  <si>
+    <t>16-02-2023</t>
+  </si>
 </sst>
 </file>
 
@@ -20856,7 +20862,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -20881,12 +20887,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -20900,7 +20900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -20925,10 +20925,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -21246,8 +21242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D684"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21722,7 +21718,7 @@
       <c r="C41" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="12" t="s">
         <v>1369</v>
       </c>
     </row>
@@ -21738,16 +21734,16 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="75.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
+      <c r="A43" s="9">
         <v>42</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="12" t="s">
         <v>1369</v>
       </c>
     </row>
@@ -21783,19 +21779,22 @@
       <c r="C46" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="12" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+    <row r="47" spans="1:4" ht="135.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="10" t="s">
         <v>94</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>1369</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -21809,7 +21808,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -21820,7 +21819,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>49</v>
       </c>
@@ -21831,7 +21830,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -21842,18 +21841,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+    <row r="52" spans="1:4" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D52" s="12" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -21864,7 +21866,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -21875,7 +21877,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -21886,7 +21888,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -21897,7 +21899,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -21908,7 +21910,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -21919,18 +21921,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+    <row r="59" spans="1:4" ht="180.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="10" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="D59" s="12" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -21941,51 +21946,63 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+    <row r="61" spans="1:4" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
         <v>60</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="10" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="D61" s="12" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="195.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
         <v>61</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="D62" s="12" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
         <v>62</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="D63" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
         <v>63</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="10" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="D64" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -21996,7 +22013,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -22007,18 +22024,21 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+    <row r="67" spans="1:4" ht="180.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="9">
         <v>66</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="10" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="D67" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -22029,7 +22049,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -22040,7 +22060,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -22051,7 +22071,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -22062,7 +22082,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -22073,7 +22093,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -22084,7 +22104,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -22095,7 +22115,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -22106,7 +22126,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -22117,7 +22137,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -22128,7 +22148,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -22139,7 +22159,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -22150,7 +22170,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
